--- a/Positif Harian COVID Indonesia.xlsx
+++ b/Positif Harian COVID Indonesia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zulhan Andika Asyraf\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E23DE5C-DFD2-47EE-81EC-4350AF435B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4533EC-9E82-455D-AA30-28621B1ACC4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE8E0346-A97F-449B-B1B8-8450BFA7023B}"/>
   </bookViews>
@@ -413,7 +413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64B7C6-B1C1-4622-B554-EE5EC66B27B5}">
   <dimension ref="A1:B1637"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -433,7 +435,6 @@
         <v>43892</v>
       </c>
       <c r="B2" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2)</f>
         <v>2</v>
       </c>
     </row>
@@ -442,7 +443,6 @@
         <v>43893</v>
       </c>
       <c r="B3" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -451,7 +451,6 @@
         <v>43894</v>
       </c>
       <c r="B4" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -460,7 +459,6 @@
         <v>43895</v>
       </c>
       <c r="B5" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -469,7 +467,6 @@
         <v>43896</v>
       </c>
       <c r="B6" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2)</f>
         <v>2</v>
       </c>
     </row>
@@ -478,7 +475,6 @@
         <v>43897</v>
       </c>
       <c r="B7" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -487,7 +483,6 @@
         <v>43898</v>
       </c>
       <c r="B8" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2)</f>
         <v>2</v>
       </c>
     </row>
@@ -496,7 +491,6 @@
         <v>43899</v>
       </c>
       <c r="B9" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13)</f>
         <v>13</v>
       </c>
     </row>
@@ -505,7 +499,6 @@
         <v>43900</v>
       </c>
       <c r="B10" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8)</f>
         <v>8</v>
       </c>
     </row>
@@ -514,7 +507,6 @@
         <v>43901</v>
       </c>
       <c r="B11" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7)</f>
         <v>7</v>
       </c>
     </row>
@@ -523,7 +515,6 @@
         <v>43902</v>
       </c>
       <c r="B12" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -532,7 +523,6 @@
         <v>43903</v>
       </c>
       <c r="B13" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35)</f>
         <v>35</v>
       </c>
     </row>
@@ -541,7 +531,6 @@
         <v>43904</v>
       </c>
       <c r="B14" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27)</f>
         <v>27</v>
       </c>
     </row>
@@ -550,7 +539,6 @@
         <v>43905</v>
       </c>
       <c r="B15" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21)</f>
         <v>21</v>
       </c>
     </row>
@@ -559,7 +547,6 @@
         <v>43906</v>
       </c>
       <c r="B16" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17)</f>
         <v>17</v>
       </c>
     </row>
@@ -568,7 +555,6 @@
         <v>43907</v>
       </c>
       <c r="B17" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38)</f>
         <v>38</v>
       </c>
     </row>
@@ -577,7 +563,6 @@
         <v>43908</v>
       </c>
       <c r="B18" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55)</f>
         <v>55</v>
       </c>
     </row>
@@ -586,7 +571,6 @@
         <v>43909</v>
       </c>
       <c r="B19" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82)</f>
         <v>82</v>
       </c>
     </row>
@@ -595,7 +579,6 @@
         <v>43910</v>
       </c>
       <c r="B20" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60)</f>
         <v>60</v>
       </c>
     </row>
@@ -604,7 +587,6 @@
         <v>43911</v>
       </c>
       <c r="B21" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81)</f>
         <v>81</v>
       </c>
     </row>
@@ -613,7 +595,6 @@
         <v>43912</v>
       </c>
       <c r="B22" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64)</f>
         <v>64</v>
       </c>
     </row>
@@ -622,7 +603,6 @@
         <v>43913</v>
       </c>
       <c r="B23" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),65)</f>
         <v>65</v>
       </c>
     </row>
@@ -631,7 +611,6 @@
         <v>43914</v>
       </c>
       <c r="B24" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107)</f>
         <v>107</v>
       </c>
     </row>
@@ -640,7 +619,6 @@
         <v>43915</v>
       </c>
       <c r="B25" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104)</f>
         <v>104</v>
       </c>
     </row>
@@ -649,7 +627,6 @@
         <v>43916</v>
       </c>
       <c r="B26" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103)</f>
         <v>103</v>
       </c>
     </row>
@@ -658,7 +635,6 @@
         <v>43917</v>
       </c>
       <c r="B27" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153)</f>
         <v>153</v>
       </c>
     </row>
@@ -667,7 +643,6 @@
         <v>43918</v>
       </c>
       <c r="B28" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109)</f>
         <v>109</v>
       </c>
     </row>
@@ -676,7 +651,6 @@
         <v>43919</v>
       </c>
       <c r="B29" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130)</f>
         <v>130</v>
       </c>
     </row>
@@ -685,7 +659,6 @@
         <v>43920</v>
       </c>
       <c r="B30" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129)</f>
         <v>129</v>
       </c>
     </row>
@@ -694,7 +667,6 @@
         <v>43921</v>
       </c>
       <c r="B31" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114)</f>
         <v>114</v>
       </c>
     </row>
@@ -703,7 +675,6 @@
         <v>43922</v>
       </c>
       <c r="B32" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149)</f>
         <v>149</v>
       </c>
     </row>
@@ -712,7 +683,6 @@
         <v>43923</v>
       </c>
       <c r="B33" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113)</f>
         <v>113</v>
       </c>
     </row>
@@ -721,7 +691,6 @@
         <v>43924</v>
       </c>
       <c r="B34" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196)</f>
         <v>196</v>
       </c>
     </row>
@@ -730,7 +699,6 @@
         <v>43925</v>
       </c>
       <c r="B35" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106)</f>
         <v>106</v>
       </c>
     </row>
@@ -739,7 +707,6 @@
         <v>43926</v>
       </c>
       <c r="B36" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181)</f>
         <v>181</v>
       </c>
     </row>
@@ -748,7 +715,6 @@
         <v>43927</v>
       </c>
       <c r="B37" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218)</f>
         <v>218</v>
       </c>
     </row>
@@ -757,7 +723,6 @@
         <v>43928</v>
       </c>
       <c r="B38" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247)</f>
         <v>247</v>
       </c>
     </row>
@@ -766,7 +731,6 @@
         <v>43929</v>
       </c>
       <c r="B39" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218)</f>
         <v>218</v>
       </c>
     </row>
@@ -775,7 +739,6 @@
         <v>43930</v>
       </c>
       <c r="B40" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337)</f>
         <v>337</v>
       </c>
     </row>
@@ -784,7 +747,6 @@
         <v>43931</v>
       </c>
       <c r="B41" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219)</f>
         <v>219</v>
       </c>
     </row>
@@ -793,7 +755,6 @@
         <v>43932</v>
       </c>
       <c r="B42" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330)</f>
         <v>330</v>
       </c>
     </row>
@@ -802,7 +763,6 @@
         <v>43933</v>
       </c>
       <c r="B43" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399)</f>
         <v>399</v>
       </c>
     </row>
@@ -811,7 +771,6 @@
         <v>43934</v>
       </c>
       <c r="B44" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316)</f>
         <v>316</v>
       </c>
     </row>
@@ -820,7 +779,6 @@
         <v>43935</v>
       </c>
       <c r="B45" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282)</f>
         <v>282</v>
       </c>
     </row>
@@ -829,7 +787,6 @@
         <v>43936</v>
       </c>
       <c r="B46" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297)</f>
         <v>297</v>
       </c>
     </row>
@@ -838,7 +795,6 @@
         <v>43937</v>
       </c>
       <c r="B47" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380)</f>
         <v>380</v>
       </c>
     </row>
@@ -847,7 +803,6 @@
         <v>43938</v>
       </c>
       <c r="B48" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407)</f>
         <v>407</v>
       </c>
     </row>
@@ -856,7 +811,6 @@
         <v>43939</v>
       </c>
       <c r="B49" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325)</f>
         <v>325</v>
       </c>
     </row>
@@ -865,7 +819,6 @@
         <v>43940</v>
       </c>
       <c r="B50" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327)</f>
         <v>327</v>
       </c>
     </row>
@@ -874,7 +827,6 @@
         <v>43941</v>
       </c>
       <c r="B51" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185)</f>
         <v>185</v>
       </c>
     </row>
@@ -883,7 +835,6 @@
         <v>43942</v>
       </c>
       <c r="B52" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375)</f>
         <v>375</v>
       </c>
     </row>
@@ -892,7 +843,6 @@
         <v>43943</v>
       </c>
       <c r="B53" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283)</f>
         <v>283</v>
       </c>
     </row>
@@ -901,7 +851,6 @@
         <v>43944</v>
       </c>
       <c r="B54" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357)</f>
         <v>357</v>
       </c>
     </row>
@@ -910,7 +859,6 @@
         <v>43945</v>
       </c>
       <c r="B55" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436)</f>
         <v>436</v>
       </c>
     </row>
@@ -919,7 +867,6 @@
         <v>43946</v>
       </c>
       <c r="B56" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),396)</f>
         <v>396</v>
       </c>
     </row>
@@ -928,7 +875,6 @@
         <v>43947</v>
       </c>
       <c r="B57" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275)</f>
         <v>275</v>
       </c>
     </row>
@@ -937,7 +883,6 @@
         <v>43948</v>
       </c>
       <c r="B58" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214)</f>
         <v>214</v>
       </c>
     </row>
@@ -946,7 +891,6 @@
         <v>43949</v>
       </c>
       <c r="B59" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415)</f>
         <v>415</v>
       </c>
     </row>
@@ -955,7 +899,6 @@
         <v>43950</v>
       </c>
       <c r="B60" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260)</f>
         <v>260</v>
       </c>
     </row>
@@ -964,7 +907,6 @@
         <v>43951</v>
       </c>
       <c r="B61" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),347)</f>
         <v>347</v>
       </c>
     </row>
@@ -973,7 +915,6 @@
         <v>43952</v>
       </c>
       <c r="B62" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433)</f>
         <v>433</v>
       </c>
     </row>
@@ -982,7 +923,6 @@
         <v>43953</v>
       </c>
       <c r="B63" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292)</f>
         <v>292</v>
       </c>
     </row>
@@ -991,7 +931,6 @@
         <v>43954</v>
       </c>
       <c r="B64" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349)</f>
         <v>349</v>
       </c>
     </row>
@@ -1000,7 +939,6 @@
         <v>43955</v>
       </c>
       <c r="B65" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),395)</f>
         <v>395</v>
       </c>
     </row>
@@ -1009,7 +947,6 @@
         <v>43956</v>
       </c>
       <c r="B66" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),484)</f>
         <v>484</v>
       </c>
     </row>
@@ -1018,7 +955,6 @@
         <v>43957</v>
       </c>
       <c r="B67" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367)</f>
         <v>367</v>
       </c>
     </row>
@@ -1027,7 +963,6 @@
         <v>43958</v>
       </c>
       <c r="B68" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338)</f>
         <v>338</v>
       </c>
     </row>
@@ -1036,7 +971,6 @@
         <v>43959</v>
       </c>
       <c r="B69" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),336)</f>
         <v>336</v>
       </c>
     </row>
@@ -1045,7 +979,6 @@
         <v>43960</v>
       </c>
       <c r="B70" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533)</f>
         <v>533</v>
       </c>
     </row>
@@ -1054,7 +987,6 @@
         <v>43961</v>
       </c>
       <c r="B71" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387)</f>
         <v>387</v>
       </c>
     </row>
@@ -1063,7 +995,6 @@
         <v>43962</v>
       </c>
       <c r="B72" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233)</f>
         <v>233</v>
       </c>
     </row>
@@ -1072,7 +1003,6 @@
         <v>43963</v>
       </c>
       <c r="B73" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),484)</f>
         <v>484</v>
       </c>
     </row>
@@ -1081,7 +1011,6 @@
         <v>43964</v>
       </c>
       <c r="B74" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689)</f>
         <v>689</v>
       </c>
     </row>
@@ -1090,7 +1019,6 @@
         <v>43965</v>
       </c>
       <c r="B75" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),568)</f>
         <v>568</v>
       </c>
     </row>
@@ -1099,7 +1027,6 @@
         <v>43966</v>
       </c>
       <c r="B76" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),490)</f>
         <v>490</v>
       </c>
     </row>
@@ -1108,7 +1035,6 @@
         <v>43967</v>
       </c>
       <c r="B77" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529)</f>
         <v>529</v>
       </c>
     </row>
@@ -1117,7 +1043,6 @@
         <v>43968</v>
       </c>
       <c r="B78" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),489)</f>
         <v>489</v>
       </c>
     </row>
@@ -1126,7 +1051,6 @@
         <v>43969</v>
       </c>
       <c r="B79" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),496)</f>
         <v>496</v>
       </c>
     </row>
@@ -1135,7 +1059,6 @@
         <v>43970</v>
       </c>
       <c r="B80" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),486)</f>
         <v>486</v>
       </c>
     </row>
@@ -1144,7 +1067,6 @@
         <v>43971</v>
       </c>
       <c r="B81" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693)</f>
         <v>693</v>
       </c>
     </row>
@@ -1153,7 +1075,6 @@
         <v>43972</v>
       </c>
       <c r="B82" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),973)</f>
         <v>973</v>
       </c>
     </row>
@@ -1162,7 +1083,6 @@
         <v>43973</v>
       </c>
       <c r="B83" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),634)</f>
         <v>634</v>
       </c>
     </row>
@@ -1171,7 +1091,6 @@
         <v>43974</v>
       </c>
       <c r="B84" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),949)</f>
         <v>949</v>
       </c>
     </row>
@@ -1180,7 +1099,6 @@
         <v>43975</v>
       </c>
       <c r="B85" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526)</f>
         <v>526</v>
       </c>
     </row>
@@ -1189,7 +1107,6 @@
         <v>43976</v>
       </c>
       <c r="B86" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),479)</f>
         <v>479</v>
       </c>
     </row>
@@ -1198,7 +1115,6 @@
         <v>43977</v>
       </c>
       <c r="B87" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415)</f>
         <v>415</v>
       </c>
     </row>
@@ -1207,7 +1123,6 @@
         <v>43978</v>
       </c>
       <c r="B88" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686)</f>
         <v>686</v>
       </c>
     </row>
@@ -1216,7 +1131,6 @@
         <v>43979</v>
       </c>
       <c r="B89" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687)</f>
         <v>687</v>
       </c>
     </row>
@@ -1225,7 +1139,6 @@
         <v>43980</v>
       </c>
       <c r="B90" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678)</f>
         <v>678</v>
       </c>
     </row>
@@ -1234,7 +1147,6 @@
         <v>43981</v>
       </c>
       <c r="B91" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),557)</f>
         <v>557</v>
       </c>
     </row>
@@ -1243,7 +1155,6 @@
         <v>43982</v>
       </c>
       <c r="B92" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),700)</f>
         <v>700</v>
       </c>
     </row>
@@ -1252,7 +1163,6 @@
         <v>43983</v>
       </c>
       <c r="B93" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467)</f>
         <v>467</v>
       </c>
     </row>
@@ -1261,7 +1171,6 @@
         <v>43984</v>
       </c>
       <c r="B94" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609)</f>
         <v>609</v>
       </c>
     </row>
@@ -1270,7 +1179,6 @@
         <v>43985</v>
       </c>
       <c r="B95" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684)</f>
         <v>684</v>
       </c>
     </row>
@@ -1279,7 +1187,6 @@
         <v>43986</v>
       </c>
       <c r="B96" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),585)</f>
         <v>585</v>
       </c>
     </row>
@@ -1288,7 +1195,6 @@
         <v>43987</v>
       </c>
       <c r="B97" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703)</f>
         <v>703</v>
       </c>
     </row>
@@ -1297,7 +1203,6 @@
         <v>43988</v>
       </c>
       <c r="B98" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),993)</f>
         <v>993</v>
       </c>
     </row>
@@ -1306,7 +1211,6 @@
         <v>43989</v>
       </c>
       <c r="B99" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672)</f>
         <v>672</v>
       </c>
     </row>
@@ -1315,7 +1219,6 @@
         <v>43990</v>
       </c>
       <c r="B100" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847)</f>
         <v>847</v>
       </c>
     </row>
@@ -1324,7 +1227,6 @@
         <v>43991</v>
       </c>
       <c r="B101" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1043)</f>
         <v>1043</v>
       </c>
     </row>
@@ -1333,7 +1235,6 @@
         <v>43992</v>
       </c>
       <c r="B102" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1240)</f>
         <v>1240</v>
       </c>
     </row>
@@ -1342,7 +1243,6 @@
         <v>43993</v>
       </c>
       <c r="B103" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),979)</f>
         <v>979</v>
       </c>
     </row>
@@ -1351,7 +1251,6 @@
         <v>43994</v>
       </c>
       <c r="B104" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111)</f>
         <v>1111</v>
       </c>
     </row>
@@ -1360,7 +1259,6 @@
         <v>43995</v>
       </c>
       <c r="B105" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1014)</f>
         <v>1014</v>
       </c>
     </row>
@@ -1369,7 +1267,6 @@
         <v>43996</v>
       </c>
       <c r="B106" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),857)</f>
         <v>857</v>
       </c>
     </row>
@@ -1378,7 +1275,6 @@
         <v>43997</v>
       </c>
       <c r="B107" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1017)</f>
         <v>1017</v>
       </c>
     </row>
@@ -1387,7 +1283,6 @@
         <v>43998</v>
       </c>
       <c r="B108" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106)</f>
         <v>1106</v>
       </c>
     </row>
@@ -1396,7 +1291,6 @@
         <v>43999</v>
       </c>
       <c r="B109" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1031)</f>
         <v>1031</v>
       </c>
     </row>
@@ -1405,7 +1299,6 @@
         <v>44000</v>
       </c>
       <c r="B110" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1331)</f>
         <v>1331</v>
       </c>
     </row>
@@ -1414,7 +1307,6 @@
         <v>44001</v>
       </c>
       <c r="B111" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1041)</f>
         <v>1041</v>
       </c>
     </row>
@@ -1423,7 +1315,6 @@
         <v>44002</v>
       </c>
       <c r="B112" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1226)</f>
         <v>1226</v>
       </c>
     </row>
@@ -1432,7 +1323,6 @@
         <v>44003</v>
       </c>
       <c r="B113" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),862)</f>
         <v>862</v>
       </c>
     </row>
@@ -1441,7 +1331,6 @@
         <v>44004</v>
       </c>
       <c r="B114" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),954)</f>
         <v>954</v>
       </c>
     </row>
@@ -1450,7 +1339,6 @@
         <v>44005</v>
       </c>
       <c r="B115" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1051)</f>
         <v>1051</v>
       </c>
     </row>
@@ -1459,7 +1347,6 @@
         <v>44006</v>
       </c>
       <c r="B116" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113)</f>
         <v>1113</v>
       </c>
     </row>
@@ -1468,7 +1355,6 @@
         <v>44007</v>
       </c>
       <c r="B117" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1178)</f>
         <v>1178</v>
       </c>
     </row>
@@ -1477,7 +1363,6 @@
         <v>44008</v>
       </c>
       <c r="B118" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1240)</f>
         <v>1240</v>
       </c>
     </row>
@@ -1486,7 +1371,6 @@
         <v>44009</v>
       </c>
       <c r="B119" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1385)</f>
         <v>1385</v>
       </c>
     </row>
@@ -1495,7 +1379,6 @@
         <v>44010</v>
       </c>
       <c r="B120" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1198)</f>
         <v>1198</v>
       </c>
     </row>
@@ -1504,7 +1387,6 @@
         <v>44011</v>
       </c>
       <c r="B121" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1082)</f>
         <v>1082</v>
       </c>
     </row>
@@ -1513,7 +1395,6 @@
         <v>44012</v>
       </c>
       <c r="B122" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1293)</f>
         <v>1293</v>
       </c>
     </row>
@@ -1522,7 +1403,6 @@
         <v>44013</v>
       </c>
       <c r="B123" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1385)</f>
         <v>1385</v>
       </c>
     </row>
@@ -1531,7 +1411,6 @@
         <v>44014</v>
       </c>
       <c r="B124" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1624)</f>
         <v>1624</v>
       </c>
     </row>
@@ -1540,7 +1419,6 @@
         <v>44015</v>
       </c>
       <c r="B125" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301)</f>
         <v>1301</v>
       </c>
     </row>
@@ -1549,7 +1427,6 @@
         <v>44016</v>
       </c>
       <c r="B126" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1447)</f>
         <v>1447</v>
       </c>
     </row>
@@ -1558,7 +1435,6 @@
         <v>44017</v>
       </c>
       <c r="B127" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1607)</f>
         <v>1607</v>
       </c>
     </row>
@@ -1567,7 +1443,6 @@
         <v>44018</v>
       </c>
       <c r="B128" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1209)</f>
         <v>1209</v>
       </c>
     </row>
@@ -1576,7 +1451,6 @@
         <v>44019</v>
       </c>
       <c r="B129" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1268)</f>
         <v>1268</v>
       </c>
     </row>
@@ -1585,7 +1459,6 @@
         <v>44020</v>
       </c>
       <c r="B130" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1853)</f>
         <v>1853</v>
       </c>
     </row>
@@ -1594,7 +1467,6 @@
         <v>44021</v>
       </c>
       <c r="B131" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2657)</f>
         <v>2657</v>
       </c>
     </row>
@@ -1603,7 +1475,6 @@
         <v>44022</v>
       </c>
       <c r="B132" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1611)</f>
         <v>1611</v>
       </c>
     </row>
@@ -1612,7 +1483,6 @@
         <v>44023</v>
       </c>
       <c r="B133" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1671)</f>
         <v>1671</v>
       </c>
     </row>
@@ -1621,7 +1491,6 @@
         <v>44024</v>
       </c>
       <c r="B134" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1681)</f>
         <v>1681</v>
       </c>
     </row>
@@ -1630,7 +1499,6 @@
         <v>44025</v>
       </c>
       <c r="B135" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1282)</f>
         <v>1282</v>
       </c>
     </row>
@@ -1639,7 +1507,6 @@
         <v>44026</v>
       </c>
       <c r="B136" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1591)</f>
         <v>1591</v>
       </c>
     </row>
@@ -1648,7 +1515,6 @@
         <v>44027</v>
       </c>
       <c r="B137" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1522)</f>
         <v>1522</v>
       </c>
     </row>
@@ -1657,7 +1523,6 @@
         <v>44028</v>
       </c>
       <c r="B138" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1574)</f>
         <v>1574</v>
       </c>
     </row>
@@ -1666,7 +1531,6 @@
         <v>44029</v>
       </c>
       <c r="B139" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1462)</f>
         <v>1462</v>
       </c>
     </row>
@@ -1675,7 +1539,6 @@
         <v>44030</v>
       </c>
       <c r="B140" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1752)</f>
         <v>1752</v>
       </c>
     </row>
@@ -1684,7 +1547,6 @@
         <v>44031</v>
       </c>
       <c r="B141" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1639)</f>
         <v>1639</v>
       </c>
     </row>
@@ -1693,7 +1555,6 @@
         <v>44032</v>
       </c>
       <c r="B142" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1693)</f>
         <v>1693</v>
       </c>
     </row>
@@ -1702,7 +1563,6 @@
         <v>44033</v>
       </c>
       <c r="B143" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1655)</f>
         <v>1655</v>
       </c>
     </row>
@@ -1711,7 +1571,6 @@
         <v>44034</v>
       </c>
       <c r="B144" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1882)</f>
         <v>1882</v>
       </c>
     </row>
@@ -1720,7 +1579,6 @@
         <v>44035</v>
       </c>
       <c r="B145" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1906)</f>
         <v>1906</v>
       </c>
     </row>
@@ -1729,7 +1587,6 @@
         <v>44036</v>
       </c>
       <c r="B146" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1761)</f>
         <v>1761</v>
       </c>
     </row>
@@ -1738,7 +1595,6 @@
         <v>44037</v>
       </c>
       <c r="B147" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1868)</f>
         <v>1868</v>
       </c>
     </row>
@@ -1747,7 +1603,6 @@
         <v>44038</v>
       </c>
       <c r="B148" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1492)</f>
         <v>1492</v>
       </c>
     </row>
@@ -1756,7 +1611,6 @@
         <v>44039</v>
       </c>
       <c r="B149" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1525)</f>
         <v>1525</v>
       </c>
     </row>
@@ -1765,7 +1619,6 @@
         <v>44040</v>
       </c>
       <c r="B150" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1748)</f>
         <v>1748</v>
       </c>
     </row>
@@ -1774,7 +1627,6 @@
         <v>44041</v>
       </c>
       <c r="B151" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2381)</f>
         <v>2381</v>
       </c>
     </row>
@@ -1783,7 +1635,6 @@
         <v>44042</v>
       </c>
       <c r="B152" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1904)</f>
         <v>1904</v>
       </c>
     </row>
@@ -1792,7 +1643,6 @@
         <v>44043</v>
       </c>
       <c r="B153" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2040)</f>
         <v>2040</v>
       </c>
     </row>
@@ -1801,7 +1651,6 @@
         <v>44044</v>
       </c>
       <c r="B154" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1560)</f>
         <v>1560</v>
       </c>
     </row>
@@ -1810,7 +1659,6 @@
         <v>44045</v>
       </c>
       <c r="B155" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1519)</f>
         <v>1519</v>
       </c>
     </row>
@@ -1819,7 +1667,6 @@
         <v>44046</v>
       </c>
       <c r="B156" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1679)</f>
         <v>1679</v>
       </c>
     </row>
@@ -1828,7 +1675,6 @@
         <v>44047</v>
       </c>
       <c r="B157" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1922)</f>
         <v>1922</v>
       </c>
     </row>
@@ -1837,7 +1683,6 @@
         <v>44048</v>
       </c>
       <c r="B158" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1815)</f>
         <v>1815</v>
       </c>
     </row>
@@ -1846,7 +1691,6 @@
         <v>44049</v>
       </c>
       <c r="B159" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1882)</f>
         <v>1882</v>
       </c>
     </row>
@@ -1855,7 +1699,6 @@
         <v>44050</v>
       </c>
       <c r="B160" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2473)</f>
         <v>2473</v>
       </c>
     </row>
@@ -1864,7 +1707,6 @@
         <v>44051</v>
       </c>
       <c r="B161" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2277)</f>
         <v>2277</v>
       </c>
     </row>
@@ -1873,7 +1715,6 @@
         <v>44052</v>
       </c>
       <c r="B162" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1893)</f>
         <v>1893</v>
       </c>
     </row>
@@ -1882,7 +1723,6 @@
         <v>44053</v>
       </c>
       <c r="B163" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1687)</f>
         <v>1687</v>
       </c>
     </row>
@@ -1891,7 +1731,6 @@
         <v>44054</v>
       </c>
       <c r="B164" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1693)</f>
         <v>1693</v>
       </c>
     </row>
@@ -1900,7 +1739,6 @@
         <v>44055</v>
       </c>
       <c r="B165" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1942)</f>
         <v>1942</v>
       </c>
     </row>
@@ -1909,7 +1747,6 @@
         <v>44056</v>
       </c>
       <c r="B166" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2098)</f>
         <v>2098</v>
       </c>
     </row>
@@ -1918,7 +1755,6 @@
         <v>44057</v>
       </c>
       <c r="B167" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2307)</f>
         <v>2307</v>
       </c>
     </row>
@@ -1927,7 +1763,6 @@
         <v>44058</v>
       </c>
       <c r="B168" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2345)</f>
         <v>2345</v>
       </c>
     </row>
@@ -1936,7 +1771,6 @@
         <v>44059</v>
       </c>
       <c r="B169" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2081)</f>
         <v>2081</v>
       </c>
     </row>
@@ -1945,7 +1779,6 @@
         <v>44060</v>
       </c>
       <c r="B170" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1821)</f>
         <v>1821</v>
       </c>
     </row>
@@ -1954,7 +1787,6 @@
         <v>44061</v>
       </c>
       <c r="B171" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1673)</f>
         <v>1673</v>
       </c>
     </row>
@@ -1963,7 +1795,6 @@
         <v>44062</v>
       </c>
       <c r="B172" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1902)</f>
         <v>1902</v>
       </c>
     </row>
@@ -1972,7 +1803,6 @@
         <v>44063</v>
       </c>
       <c r="B173" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2266)</f>
         <v>2266</v>
       </c>
     </row>
@@ -1981,7 +1811,6 @@
         <v>44064</v>
       </c>
       <c r="B174" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2197)</f>
         <v>2197</v>
       </c>
     </row>
@@ -1990,7 +1819,6 @@
         <v>44065</v>
       </c>
       <c r="B175" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2090)</f>
         <v>2090</v>
       </c>
     </row>
@@ -1999,7 +1827,6 @@
         <v>44066</v>
       </c>
       <c r="B176" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2037)</f>
         <v>2037</v>
       </c>
     </row>
@@ -2008,7 +1835,6 @@
         <v>44067</v>
       </c>
       <c r="B177" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1877)</f>
         <v>1877</v>
       </c>
     </row>
@@ -2017,7 +1843,6 @@
         <v>44068</v>
       </c>
       <c r="B178" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2447)</f>
         <v>2447</v>
       </c>
     </row>
@@ -2026,7 +1851,6 @@
         <v>44069</v>
       </c>
       <c r="B179" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2306)</f>
         <v>2306</v>
       </c>
     </row>
@@ -2035,7 +1859,6 @@
         <v>44070</v>
       </c>
       <c r="B180" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2719)</f>
         <v>2719</v>
       </c>
     </row>
@@ -2044,7 +1867,6 @@
         <v>44071</v>
       </c>
       <c r="B181" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3003)</f>
         <v>3003</v>
       </c>
     </row>
@@ -2053,7 +1875,6 @@
         <v>44072</v>
       </c>
       <c r="B182" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3308)</f>
         <v>3308</v>
       </c>
     </row>
@@ -2062,7 +1883,6 @@
         <v>44073</v>
       </c>
       <c r="B183" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2858)</f>
         <v>2858</v>
       </c>
     </row>
@@ -2071,7 +1891,6 @@
         <v>44074</v>
       </c>
       <c r="B184" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2743)</f>
         <v>2743</v>
       </c>
     </row>
@@ -2080,7 +1899,6 @@
         <v>44075</v>
       </c>
       <c r="B185" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2775)</f>
         <v>2775</v>
       </c>
     </row>
@@ -2089,7 +1907,6 @@
         <v>44076</v>
       </c>
       <c r="B186" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3075)</f>
         <v>3075</v>
       </c>
     </row>
@@ -2098,7 +1915,6 @@
         <v>44077</v>
       </c>
       <c r="B187" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3622)</f>
         <v>3622</v>
       </c>
     </row>
@@ -2107,7 +1923,6 @@
         <v>44078</v>
       </c>
       <c r="B188" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3269)</f>
         <v>3269</v>
       </c>
     </row>
@@ -2116,7 +1931,6 @@
         <v>44079</v>
       </c>
       <c r="B189" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3128)</f>
         <v>3128</v>
       </c>
     </row>
@@ -2125,7 +1939,6 @@
         <v>44080</v>
       </c>
       <c r="B190" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3444)</f>
         <v>3444</v>
       </c>
     </row>
@@ -2134,7 +1947,6 @@
         <v>44081</v>
       </c>
       <c r="B191" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2880)</f>
         <v>2880</v>
       </c>
     </row>
@@ -2143,7 +1955,6 @@
         <v>44082</v>
       </c>
       <c r="B192" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3046)</f>
         <v>3046</v>
       </c>
     </row>
@@ -2152,7 +1963,6 @@
         <v>44083</v>
       </c>
       <c r="B193" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3307)</f>
         <v>3307</v>
       </c>
     </row>
@@ -2161,7 +1971,6 @@
         <v>44084</v>
       </c>
       <c r="B194" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3861)</f>
         <v>3861</v>
       </c>
     </row>
@@ -2170,7 +1979,6 @@
         <v>44085</v>
       </c>
       <c r="B195" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3737)</f>
         <v>3737</v>
       </c>
     </row>
@@ -2179,7 +1987,6 @@
         <v>44086</v>
       </c>
       <c r="B196" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3806)</f>
         <v>3806</v>
       </c>
     </row>
@@ -2188,7 +1995,6 @@
         <v>44087</v>
       </c>
       <c r="B197" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3636)</f>
         <v>3636</v>
       </c>
     </row>
@@ -2197,7 +2003,6 @@
         <v>44088</v>
       </c>
       <c r="B198" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3141)</f>
         <v>3141</v>
       </c>
     </row>
@@ -2206,7 +2011,6 @@
         <v>44089</v>
       </c>
       <c r="B199" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3507)</f>
         <v>3507</v>
       </c>
     </row>
@@ -2215,7 +2019,6 @@
         <v>44090</v>
       </c>
       <c r="B200" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3963)</f>
         <v>3963</v>
       </c>
     </row>
@@ -2224,7 +2027,6 @@
         <v>44091</v>
       </c>
       <c r="B201" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3635)</f>
         <v>3635</v>
       </c>
     </row>
@@ -2233,7 +2035,6 @@
         <v>44092</v>
       </c>
       <c r="B202" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3891)</f>
         <v>3891</v>
       </c>
     </row>
@@ -2242,7 +2043,6 @@
         <v>44093</v>
       </c>
       <c r="B203" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4168)</f>
         <v>4168</v>
       </c>
     </row>
@@ -2251,7 +2051,6 @@
         <v>44094</v>
       </c>
       <c r="B204" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3989)</f>
         <v>3989</v>
       </c>
     </row>
@@ -2260,7 +2059,6 @@
         <v>44095</v>
       </c>
       <c r="B205" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4176)</f>
         <v>4176</v>
       </c>
     </row>
@@ -2269,7 +2067,6 @@
         <v>44096</v>
       </c>
       <c r="B206" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4071)</f>
         <v>4071</v>
       </c>
     </row>
@@ -2278,7 +2075,6 @@
         <v>44097</v>
       </c>
       <c r="B207" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4465)</f>
         <v>4465</v>
       </c>
     </row>
@@ -2287,7 +2083,6 @@
         <v>44098</v>
       </c>
       <c r="B208" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4634)</f>
         <v>4634</v>
       </c>
     </row>
@@ -2296,7 +2091,6 @@
         <v>44099</v>
       </c>
       <c r="B209" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4823)</f>
         <v>4823</v>
       </c>
     </row>
@@ -2305,7 +2099,6 @@
         <v>44100</v>
       </c>
       <c r="B210" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4494)</f>
         <v>4494</v>
       </c>
     </row>
@@ -2314,7 +2107,6 @@
         <v>44101</v>
       </c>
       <c r="B211" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3874)</f>
         <v>3874</v>
       </c>
     </row>
@@ -2323,7 +2115,6 @@
         <v>44102</v>
       </c>
       <c r="B212" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3509)</f>
         <v>3509</v>
       </c>
     </row>
@@ -2332,7 +2123,6 @@
         <v>44103</v>
       </c>
       <c r="B213" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4002)</f>
         <v>4002</v>
       </c>
     </row>
@@ -2341,7 +2131,6 @@
         <v>44104</v>
       </c>
       <c r="B214" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4284)</f>
         <v>4284</v>
       </c>
     </row>
@@ -2350,7 +2139,6 @@
         <v>44105</v>
       </c>
       <c r="B215" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4174)</f>
         <v>4174</v>
       </c>
     </row>
@@ -2359,7 +2147,6 @@
         <v>44106</v>
       </c>
       <c r="B216" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4317)</f>
         <v>4317</v>
       </c>
     </row>
@@ -2368,7 +2155,6 @@
         <v>44107</v>
       </c>
       <c r="B217" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4007)</f>
         <v>4007</v>
       </c>
     </row>
@@ -2377,7 +2163,6 @@
         <v>44108</v>
       </c>
       <c r="B218" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3992)</f>
         <v>3992</v>
       </c>
     </row>
@@ -2386,7 +2171,6 @@
         <v>44109</v>
       </c>
       <c r="B219" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3622)</f>
         <v>3622</v>
       </c>
     </row>
@@ -2395,7 +2179,6 @@
         <v>44110</v>
       </c>
       <c r="B220" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4056)</f>
         <v>4056</v>
       </c>
     </row>
@@ -2404,7 +2187,6 @@
         <v>44111</v>
       </c>
       <c r="B221" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4538)</f>
         <v>4538</v>
       </c>
     </row>
@@ -2413,7 +2195,6 @@
         <v>44112</v>
       </c>
       <c r="B222" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4850)</f>
         <v>4850</v>
       </c>
     </row>
@@ -2422,7 +2203,6 @@
         <v>44113</v>
       </c>
       <c r="B223" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4094)</f>
         <v>4094</v>
       </c>
     </row>
@@ -2431,7 +2211,6 @@
         <v>44114</v>
       </c>
       <c r="B224" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4294)</f>
         <v>4294</v>
       </c>
     </row>
@@ -2440,7 +2219,6 @@
         <v>44115</v>
       </c>
       <c r="B225" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4497)</f>
         <v>4497</v>
       </c>
     </row>
@@ -2449,7 +2227,6 @@
         <v>44116</v>
       </c>
       <c r="B226" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3267)</f>
         <v>3267</v>
       </c>
     </row>
@@ -2458,7 +2235,6 @@
         <v>44117</v>
       </c>
       <c r="B227" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3906)</f>
         <v>3906</v>
       </c>
     </row>
@@ -2467,7 +2243,6 @@
         <v>44118</v>
       </c>
       <c r="B228" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4127)</f>
         <v>4127</v>
       </c>
     </row>
@@ -2476,7 +2251,6 @@
         <v>44119</v>
       </c>
       <c r="B229" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4411)</f>
         <v>4411</v>
       </c>
     </row>
@@ -2485,7 +2259,6 @@
         <v>44120</v>
       </c>
       <c r="B230" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4301)</f>
         <v>4301</v>
       </c>
     </row>
@@ -2494,7 +2267,6 @@
         <v>44121</v>
       </c>
       <c r="B231" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4301)</f>
         <v>4301</v>
       </c>
     </row>
@@ -2503,7 +2275,6 @@
         <v>44122</v>
       </c>
       <c r="B232" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4105)</f>
         <v>4105</v>
       </c>
     </row>
@@ -2512,7 +2283,6 @@
         <v>44123</v>
       </c>
       <c r="B233" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3373)</f>
         <v>3373</v>
       </c>
     </row>
@@ -2521,7 +2291,6 @@
         <v>44124</v>
       </c>
       <c r="B234" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3602)</f>
         <v>3602</v>
       </c>
     </row>
@@ -2530,7 +2299,6 @@
         <v>44125</v>
       </c>
       <c r="B235" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4267)</f>
         <v>4267</v>
       </c>
     </row>
@@ -2539,7 +2307,6 @@
         <v>44126</v>
       </c>
       <c r="B236" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4432)</f>
         <v>4432</v>
       </c>
     </row>
@@ -2548,7 +2315,6 @@
         <v>44127</v>
       </c>
       <c r="B237" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4369)</f>
         <v>4369</v>
       </c>
     </row>
@@ -2557,7 +2323,6 @@
         <v>44128</v>
       </c>
       <c r="B238" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4070)</f>
         <v>4070</v>
       </c>
     </row>
@@ -2566,7 +2331,6 @@
         <v>44129</v>
       </c>
       <c r="B239" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3732)</f>
         <v>3732</v>
       </c>
     </row>
@@ -2575,7 +2339,6 @@
         <v>44130</v>
       </c>
       <c r="B240" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3222)</f>
         <v>3222</v>
       </c>
     </row>
@@ -2584,7 +2347,6 @@
         <v>44131</v>
       </c>
       <c r="B241" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3520)</f>
         <v>3520</v>
       </c>
     </row>
@@ -2593,7 +2355,6 @@
         <v>44132</v>
       </c>
       <c r="B242" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4029)</f>
         <v>4029</v>
       </c>
     </row>
@@ -2602,7 +2363,6 @@
         <v>44133</v>
       </c>
       <c r="B243" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3565)</f>
         <v>3565</v>
       </c>
     </row>
@@ -2611,7 +2371,6 @@
         <v>44134</v>
       </c>
       <c r="B244" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2897)</f>
         <v>2897</v>
       </c>
     </row>
@@ -2620,7 +2379,6 @@
         <v>44135</v>
       </c>
       <c r="B245" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3143)</f>
         <v>3143</v>
       </c>
     </row>
@@ -2629,7 +2387,6 @@
         <v>44136</v>
       </c>
       <c r="B246" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2696)</f>
         <v>2696</v>
       </c>
     </row>
@@ -2638,7 +2395,6 @@
         <v>44137</v>
       </c>
       <c r="B247" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2618)</f>
         <v>2618</v>
       </c>
     </row>
@@ -2647,7 +2403,6 @@
         <v>44138</v>
       </c>
       <c r="B248" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2973)</f>
         <v>2973</v>
       </c>
     </row>
@@ -2656,7 +2411,6 @@
         <v>44139</v>
       </c>
       <c r="B249" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3356)</f>
         <v>3356</v>
       </c>
     </row>
@@ -2665,7 +2419,6 @@
         <v>44140</v>
       </c>
       <c r="B250" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4065)</f>
         <v>4065</v>
       </c>
     </row>
@@ -2674,7 +2427,6 @@
         <v>44141</v>
       </c>
       <c r="B251" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3778)</f>
         <v>3778</v>
       </c>
     </row>
@@ -2683,7 +2435,6 @@
         <v>44142</v>
       </c>
       <c r="B252" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4262)</f>
         <v>4262</v>
       </c>
     </row>
@@ -2692,7 +2443,6 @@
         <v>44143</v>
       </c>
       <c r="B253" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3880)</f>
         <v>3880</v>
       </c>
     </row>
@@ -2701,7 +2451,6 @@
         <v>44144</v>
       </c>
       <c r="B254" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2853)</f>
         <v>2853</v>
       </c>
     </row>
@@ -2710,7 +2459,6 @@
         <v>44145</v>
       </c>
       <c r="B255" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3779)</f>
         <v>3779</v>
       </c>
     </row>
@@ -2719,7 +2467,6 @@
         <v>44146</v>
       </c>
       <c r="B256" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3770)</f>
         <v>3770</v>
       </c>
     </row>
@@ -2728,7 +2475,6 @@
         <v>44147</v>
       </c>
       <c r="B257" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4173)</f>
         <v>4173</v>
       </c>
     </row>
@@ -2737,7 +2483,6 @@
         <v>44148</v>
       </c>
       <c r="B258" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5444)</f>
         <v>5444</v>
       </c>
     </row>
@@ -2746,7 +2491,6 @@
         <v>44149</v>
       </c>
       <c r="B259" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5272)</f>
         <v>5272</v>
       </c>
     </row>
@@ -2755,7 +2499,6 @@
         <v>44150</v>
       </c>
       <c r="B260" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4106)</f>
         <v>4106</v>
       </c>
     </row>
@@ -2764,7 +2507,6 @@
         <v>44151</v>
       </c>
       <c r="B261" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3535)</f>
         <v>3535</v>
       </c>
     </row>
@@ -2773,7 +2515,6 @@
         <v>44152</v>
       </c>
       <c r="B262" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3807)</f>
         <v>3807</v>
       </c>
     </row>
@@ -2782,7 +2523,6 @@
         <v>44153</v>
       </c>
       <c r="B263" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4265)</f>
         <v>4265</v>
       </c>
     </row>
@@ -2791,7 +2531,6 @@
         <v>44154</v>
       </c>
       <c r="B264" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4798)</f>
         <v>4798</v>
       </c>
     </row>
@@ -2800,7 +2539,6 @@
         <v>44155</v>
       </c>
       <c r="B265" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4792)</f>
         <v>4792</v>
       </c>
     </row>
@@ -2809,7 +2547,6 @@
         <v>44156</v>
       </c>
       <c r="B266" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4998)</f>
         <v>4998</v>
       </c>
     </row>
@@ -2818,7 +2555,6 @@
         <v>44157</v>
       </c>
       <c r="B267" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4360)</f>
         <v>4360</v>
       </c>
     </row>
@@ -2827,7 +2563,6 @@
         <v>44158</v>
       </c>
       <c r="B268" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4442)</f>
         <v>4442</v>
       </c>
     </row>
@@ -2836,7 +2571,6 @@
         <v>44159</v>
       </c>
       <c r="B269" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4192)</f>
         <v>4192</v>
       </c>
     </row>
@@ -2845,7 +2579,6 @@
         <v>44160</v>
       </c>
       <c r="B270" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5534)</f>
         <v>5534</v>
       </c>
     </row>
@@ -2854,7 +2587,6 @@
         <v>44161</v>
       </c>
       <c r="B271" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4917)</f>
         <v>4917</v>
       </c>
     </row>
@@ -2863,7 +2595,6 @@
         <v>44162</v>
       </c>
       <c r="B272" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5828)</f>
         <v>5828</v>
       </c>
     </row>
@@ -2872,7 +2603,6 @@
         <v>44163</v>
       </c>
       <c r="B273" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5418)</f>
         <v>5418</v>
       </c>
     </row>
@@ -2881,7 +2611,6 @@
         <v>44164</v>
       </c>
       <c r="B274" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6267)</f>
         <v>6267</v>
       </c>
     </row>
@@ -2890,7 +2619,6 @@
         <v>44165</v>
       </c>
       <c r="B275" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4617)</f>
         <v>4617</v>
       </c>
     </row>
@@ -2899,7 +2627,6 @@
         <v>44166</v>
       </c>
       <c r="B276" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5092)</f>
         <v>5092</v>
       </c>
     </row>
@@ -2908,7 +2635,6 @@
         <v>44167</v>
       </c>
       <c r="B277" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5533)</f>
         <v>5533</v>
       </c>
     </row>
@@ -2917,7 +2643,6 @@
         <v>44168</v>
       </c>
       <c r="B278" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8369)</f>
         <v>8369</v>
       </c>
     </row>
@@ -2926,7 +2651,6 @@
         <v>44169</v>
       </c>
       <c r="B279" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5803)</f>
         <v>5803</v>
       </c>
     </row>
@@ -2935,7 +2659,6 @@
         <v>44170</v>
       </c>
       <c r="B280" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6027)</f>
         <v>6027</v>
       </c>
     </row>
@@ -2944,7 +2667,6 @@
         <v>44171</v>
       </c>
       <c r="B281" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6089)</f>
         <v>6089</v>
       </c>
     </row>
@@ -2953,7 +2675,6 @@
         <v>44172</v>
       </c>
       <c r="B282" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5754)</f>
         <v>5754</v>
       </c>
     </row>
@@ -2962,7 +2683,6 @@
         <v>44173</v>
       </c>
       <c r="B283" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5292)</f>
         <v>5292</v>
       </c>
     </row>
@@ -2971,7 +2691,6 @@
         <v>44174</v>
       </c>
       <c r="B284" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6058)</f>
         <v>6058</v>
       </c>
     </row>
@@ -2980,7 +2699,6 @@
         <v>44175</v>
       </c>
       <c r="B285" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6033)</f>
         <v>6033</v>
       </c>
     </row>
@@ -2989,7 +2707,6 @@
         <v>44176</v>
       </c>
       <c r="B286" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6310)</f>
         <v>6310</v>
       </c>
     </row>
@@ -2998,7 +2715,6 @@
         <v>44177</v>
       </c>
       <c r="B287" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6388)</f>
         <v>6388</v>
       </c>
     </row>
@@ -3007,7 +2723,6 @@
         <v>44178</v>
       </c>
       <c r="B288" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6189)</f>
         <v>6189</v>
       </c>
     </row>
@@ -3016,7 +2731,6 @@
         <v>44179</v>
       </c>
       <c r="B289" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5489)</f>
         <v>5489</v>
       </c>
     </row>
@@ -3025,7 +2739,6 @@
         <v>44180</v>
       </c>
       <c r="B290" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6120)</f>
         <v>6120</v>
       </c>
     </row>
@@ -3034,7 +2747,6 @@
         <v>44181</v>
       </c>
       <c r="B291" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6725)</f>
         <v>6725</v>
       </c>
     </row>
@@ -3043,7 +2755,6 @@
         <v>44182</v>
       </c>
       <c r="B292" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7354)</f>
         <v>7354</v>
       </c>
     </row>
@@ -3052,7 +2763,6 @@
         <v>44183</v>
       </c>
       <c r="B293" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6689)</f>
         <v>6689</v>
       </c>
     </row>
@@ -3061,7 +2771,6 @@
         <v>44184</v>
       </c>
       <c r="B294" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7751)</f>
         <v>7751</v>
       </c>
     </row>
@@ -3070,7 +2779,6 @@
         <v>44185</v>
       </c>
       <c r="B295" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6982)</f>
         <v>6982</v>
       </c>
     </row>
@@ -3079,7 +2787,6 @@
         <v>44186</v>
       </c>
       <c r="B296" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6848)</f>
         <v>6848</v>
       </c>
     </row>
@@ -3088,7 +2795,6 @@
         <v>44187</v>
       </c>
       <c r="B297" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6347)</f>
         <v>6347</v>
       </c>
     </row>
@@ -3097,7 +2803,6 @@
         <v>44188</v>
       </c>
       <c r="B298" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7514)</f>
         <v>7514</v>
       </c>
     </row>
@@ -3106,7 +2811,6 @@
         <v>44189</v>
       </c>
       <c r="B299" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7199)</f>
         <v>7199</v>
       </c>
     </row>
@@ -3115,7 +2819,6 @@
         <v>44190</v>
       </c>
       <c r="B300" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7259)</f>
         <v>7259</v>
       </c>
     </row>
@@ -3124,7 +2827,6 @@
         <v>44191</v>
       </c>
       <c r="B301" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6740)</f>
         <v>6740</v>
       </c>
     </row>
@@ -3133,7 +2835,6 @@
         <v>44192</v>
       </c>
       <c r="B302" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6528)</f>
         <v>6528</v>
       </c>
     </row>
@@ -3142,7 +2843,6 @@
         <v>44193</v>
       </c>
       <c r="B303" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5854)</f>
         <v>5854</v>
       </c>
     </row>
@@ -3151,7 +2851,6 @@
         <v>44194</v>
       </c>
       <c r="B304" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7903)</f>
         <v>7903</v>
       </c>
     </row>
@@ -3160,7 +2859,6 @@
         <v>44195</v>
       </c>
       <c r="B305" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8002)</f>
         <v>8002</v>
       </c>
     </row>
@@ -3169,7 +2867,6 @@
         <v>44196</v>
       </c>
       <c r="B306" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8074)</f>
         <v>8074</v>
       </c>
     </row>
@@ -3178,7 +2875,6 @@
         <v>44197</v>
       </c>
       <c r="B307" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8072)</f>
         <v>8072</v>
       </c>
     </row>
@@ -3187,7 +2883,6 @@
         <v>44198</v>
       </c>
       <c r="B308" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7203)</f>
         <v>7203</v>
       </c>
     </row>
@@ -3196,7 +2891,6 @@
         <v>44199</v>
       </c>
       <c r="B309" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6877)</f>
         <v>6877</v>
       </c>
     </row>
@@ -3205,7 +2899,6 @@
         <v>44200</v>
       </c>
       <c r="B310" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6753)</f>
         <v>6753</v>
       </c>
     </row>
@@ -3214,7 +2907,6 @@
         <v>44201</v>
       </c>
       <c r="B311" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7445)</f>
         <v>7445</v>
       </c>
     </row>
@@ -3223,7 +2915,6 @@
         <v>44202</v>
       </c>
       <c r="B312" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8854)</f>
         <v>8854</v>
       </c>
     </row>
@@ -3232,7 +2923,6 @@
         <v>44203</v>
       </c>
       <c r="B313" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9321)</f>
         <v>9321</v>
       </c>
     </row>
@@ -3241,7 +2931,6 @@
         <v>44204</v>
       </c>
       <c r="B314" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10617)</f>
         <v>10617</v>
       </c>
     </row>
@@ -3250,7 +2939,6 @@
         <v>44205</v>
       </c>
       <c r="B315" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10046)</f>
         <v>10046</v>
       </c>
     </row>
@@ -3259,7 +2947,6 @@
         <v>44206</v>
       </c>
       <c r="B316" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9640)</f>
         <v>9640</v>
       </c>
     </row>
@@ -3268,7 +2955,6 @@
         <v>44207</v>
       </c>
       <c r="B317" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8692)</f>
         <v>8692</v>
       </c>
     </row>
@@ -3277,7 +2963,6 @@
         <v>44208</v>
       </c>
       <c r="B318" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10047)</f>
         <v>10047</v>
       </c>
     </row>
@@ -3286,7 +2971,6 @@
         <v>44209</v>
       </c>
       <c r="B319" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11278)</f>
         <v>11278</v>
       </c>
     </row>
@@ -3295,7 +2979,6 @@
         <v>44210</v>
       </c>
       <c r="B320" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11557)</f>
         <v>11557</v>
       </c>
     </row>
@@ -3304,7 +2987,6 @@
         <v>44211</v>
       </c>
       <c r="B321" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12818)</f>
         <v>12818</v>
       </c>
     </row>
@@ -3313,7 +2995,6 @@
         <v>44212</v>
       </c>
       <c r="B322" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14224)</f>
         <v>14224</v>
       </c>
     </row>
@@ -3322,7 +3003,6 @@
         <v>44213</v>
       </c>
       <c r="B323" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11287)</f>
         <v>11287</v>
       </c>
     </row>
@@ -3331,7 +3011,6 @@
         <v>44214</v>
       </c>
       <c r="B324" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9086)</f>
         <v>9086</v>
       </c>
     </row>
@@ -3340,7 +3019,6 @@
         <v>44215</v>
       </c>
       <c r="B325" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10365)</f>
         <v>10365</v>
       </c>
     </row>
@@ -3349,7 +3027,6 @@
         <v>44216</v>
       </c>
       <c r="B326" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12568)</f>
         <v>12568</v>
       </c>
     </row>
@@ -3358,7 +3035,6 @@
         <v>44217</v>
       </c>
       <c r="B327" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11703)</f>
         <v>11703</v>
       </c>
     </row>
@@ -3367,7 +3043,6 @@
         <v>44218</v>
       </c>
       <c r="B328" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13632)</f>
         <v>13632</v>
       </c>
     </row>
@@ -3376,7 +3051,6 @@
         <v>44219</v>
       </c>
       <c r="B329" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12191)</f>
         <v>12191</v>
       </c>
     </row>
@@ -3385,7 +3059,6 @@
         <v>44220</v>
       </c>
       <c r="B330" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11788)</f>
         <v>11788</v>
       </c>
     </row>
@@ -3394,7 +3067,6 @@
         <v>44221</v>
       </c>
       <c r="B331" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9994)</f>
         <v>9994</v>
       </c>
     </row>
@@ -3403,7 +3075,6 @@
         <v>44222</v>
       </c>
       <c r="B332" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13094)</f>
         <v>13094</v>
       </c>
     </row>
@@ -3412,7 +3083,6 @@
         <v>44223</v>
       </c>
       <c r="B333" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11948)</f>
         <v>11948</v>
       </c>
     </row>
@@ -3421,7 +3091,6 @@
         <v>44224</v>
       </c>
       <c r="B334" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13695)</f>
         <v>13695</v>
       </c>
     </row>
@@ -3430,7 +3099,6 @@
         <v>44225</v>
       </c>
       <c r="B335" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13802)</f>
         <v>13802</v>
       </c>
     </row>
@@ -3439,7 +3107,6 @@
         <v>44226</v>
       </c>
       <c r="B336" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14518)</f>
         <v>14518</v>
       </c>
     </row>
@@ -3448,7 +3115,6 @@
         <v>44227</v>
       </c>
       <c r="B337" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12001)</f>
         <v>12001</v>
       </c>
     </row>
@@ -3457,7 +3123,6 @@
         <v>44228</v>
       </c>
       <c r="B338" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10994)</f>
         <v>10994</v>
       </c>
     </row>
@@ -3466,7 +3131,6 @@
         <v>44229</v>
       </c>
       <c r="B339" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10379)</f>
         <v>10379</v>
       </c>
     </row>
@@ -3475,7 +3139,6 @@
         <v>44230</v>
       </c>
       <c r="B340" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11984)</f>
         <v>11984</v>
       </c>
     </row>
@@ -3484,7 +3147,6 @@
         <v>44231</v>
       </c>
       <c r="B341" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11434)</f>
         <v>11434</v>
       </c>
     </row>
@@ -3493,7 +3155,6 @@
         <v>44232</v>
       </c>
       <c r="B342" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11749)</f>
         <v>11749</v>
       </c>
     </row>
@@ -3502,7 +3163,6 @@
         <v>44233</v>
       </c>
       <c r="B343" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12156)</f>
         <v>12156</v>
       </c>
     </row>
@@ -3511,7 +3171,6 @@
         <v>44234</v>
       </c>
       <c r="B344" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10827)</f>
         <v>10827</v>
       </c>
     </row>
@@ -3520,7 +3179,6 @@
         <v>44235</v>
       </c>
       <c r="B345" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8242)</f>
         <v>8242</v>
       </c>
     </row>
@@ -3529,7 +3187,6 @@
         <v>44236</v>
       </c>
       <c r="B346" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8700)</f>
         <v>8700</v>
       </c>
     </row>
@@ -3538,7 +3195,6 @@
         <v>44237</v>
       </c>
       <c r="B347" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8776)</f>
         <v>8776</v>
       </c>
     </row>
@@ -3547,7 +3203,6 @@
         <v>44238</v>
       </c>
       <c r="B348" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8435)</f>
         <v>8435</v>
       </c>
     </row>
@@ -3556,7 +3211,6 @@
         <v>44239</v>
       </c>
       <c r="B349" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9869)</f>
         <v>9869</v>
       </c>
     </row>
@@ -3565,7 +3219,6 @@
         <v>44240</v>
       </c>
       <c r="B350" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8844)</f>
         <v>8844</v>
       </c>
     </row>
@@ -3574,7 +3227,6 @@
         <v>44241</v>
       </c>
       <c r="B351" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6765)</f>
         <v>6765</v>
       </c>
     </row>
@@ -3583,7 +3235,6 @@
         <v>44242</v>
       </c>
       <c r="B352" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6462)</f>
         <v>6462</v>
       </c>
     </row>
@@ -3592,7 +3243,6 @@
         <v>44243</v>
       </c>
       <c r="B353" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10029)</f>
         <v>10029</v>
       </c>
     </row>
@@ -3601,7 +3251,6 @@
         <v>44244</v>
       </c>
       <c r="B354" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9687)</f>
         <v>9687</v>
       </c>
     </row>
@@ -3610,7 +3259,6 @@
         <v>44245</v>
       </c>
       <c r="B355" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9039)</f>
         <v>9039</v>
       </c>
     </row>
@@ -3619,7 +3267,6 @@
         <v>44246</v>
       </c>
       <c r="B356" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10614)</f>
         <v>10614</v>
       </c>
     </row>
@@ -3628,7 +3275,6 @@
         <v>44247</v>
       </c>
       <c r="B357" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8054)</f>
         <v>8054</v>
       </c>
     </row>
@@ -3637,7 +3283,6 @@
         <v>44248</v>
       </c>
       <c r="B358" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7300)</f>
         <v>7300</v>
       </c>
     </row>
@@ -3646,7 +3291,6 @@
         <v>44249</v>
       </c>
       <c r="B359" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10180)</f>
         <v>10180</v>
       </c>
     </row>
@@ -3655,7 +3299,6 @@
         <v>44250</v>
       </c>
       <c r="B360" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9775)</f>
         <v>9775</v>
       </c>
     </row>
@@ -3664,7 +3307,6 @@
         <v>44251</v>
       </c>
       <c r="B361" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7533)</f>
         <v>7533</v>
       </c>
     </row>
@@ -3673,7 +3315,6 @@
         <v>44252</v>
       </c>
       <c r="B362" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8493)</f>
         <v>8493</v>
       </c>
     </row>
@@ -3682,7 +3323,6 @@
         <v>44253</v>
       </c>
       <c r="B363" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8232)</f>
         <v>8232</v>
       </c>
     </row>
@@ -3691,7 +3331,6 @@
         <v>44254</v>
       </c>
       <c r="B364" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6208)</f>
         <v>6208</v>
       </c>
     </row>
@@ -3700,7 +3339,6 @@
         <v>44255</v>
       </c>
       <c r="B365" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5560)</f>
         <v>5560</v>
       </c>
     </row>
@@ -3709,7 +3347,6 @@
         <v>44256</v>
       </c>
       <c r="B366" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6680)</f>
         <v>6680</v>
       </c>
     </row>
@@ -3718,7 +3355,6 @@
         <v>44257</v>
       </c>
       <c r="B367" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5712)</f>
         <v>5712</v>
       </c>
     </row>
@@ -3727,7 +3363,6 @@
         <v>44258</v>
       </c>
       <c r="B368" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6808)</f>
         <v>6808</v>
       </c>
     </row>
@@ -3736,7 +3371,6 @@
         <v>44259</v>
       </c>
       <c r="B369" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7264)</f>
         <v>7264</v>
       </c>
     </row>
@@ -3745,7 +3379,6 @@
         <v>44260</v>
       </c>
       <c r="B370" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6995)</f>
         <v>6995</v>
       </c>
     </row>
@@ -3754,7 +3387,6 @@
         <v>44261</v>
       </c>
       <c r="B371" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5743)</f>
         <v>5743</v>
       </c>
     </row>
@@ -3763,7 +3395,6 @@
         <v>44262</v>
       </c>
       <c r="B372" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5826)</f>
         <v>5826</v>
       </c>
     </row>
@@ -3772,7 +3403,6 @@
         <v>44263</v>
       </c>
       <c r="B373" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6894)</f>
         <v>6894</v>
       </c>
     </row>
@@ -3781,7 +3411,6 @@
         <v>44264</v>
       </c>
       <c r="B374" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6389)</f>
         <v>6389</v>
       </c>
     </row>
@@ -3790,7 +3419,6 @@
         <v>44265</v>
       </c>
       <c r="B375" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5633)</f>
         <v>5633</v>
       </c>
     </row>
@@ -3799,7 +3427,6 @@
         <v>44266</v>
       </c>
       <c r="B376" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5144)</f>
         <v>5144</v>
       </c>
     </row>
@@ -3808,7 +3435,6 @@
         <v>44267</v>
       </c>
       <c r="B377" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6412)</f>
         <v>6412</v>
       </c>
     </row>
@@ -3817,7 +3443,6 @@
         <v>44268</v>
       </c>
       <c r="B378" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4607)</f>
         <v>4607</v>
       </c>
     </row>
@@ -3826,7 +3451,6 @@
         <v>44269</v>
       </c>
       <c r="B379" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4714)</f>
         <v>4714</v>
       </c>
     </row>
@@ -3835,7 +3459,6 @@
         <v>44270</v>
       </c>
       <c r="B380" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5589)</f>
         <v>5589</v>
       </c>
     </row>
@@ -3844,7 +3467,6 @@
         <v>44271</v>
       </c>
       <c r="B381" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5414)</f>
         <v>5414</v>
       </c>
     </row>
@@ -3853,7 +3475,6 @@
         <v>44272</v>
       </c>
       <c r="B382" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6825)</f>
         <v>6825</v>
       </c>
     </row>
@@ -3862,7 +3483,6 @@
         <v>44273</v>
       </c>
       <c r="B383" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6570)</f>
         <v>6570</v>
       </c>
     </row>
@@ -3871,7 +3491,6 @@
         <v>44274</v>
       </c>
       <c r="B384" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6279)</f>
         <v>6279</v>
       </c>
     </row>
@@ -3880,7 +3499,6 @@
         <v>44275</v>
       </c>
       <c r="B385" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5656)</f>
         <v>5656</v>
       </c>
     </row>
@@ -3889,7 +3507,6 @@
         <v>44276</v>
       </c>
       <c r="B386" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4396)</f>
         <v>4396</v>
       </c>
     </row>
@@ -3898,7 +3515,6 @@
         <v>44277</v>
       </c>
       <c r="B387" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5744)</f>
         <v>5744</v>
       </c>
     </row>
@@ -3907,7 +3523,6 @@
         <v>44278</v>
       </c>
       <c r="B388" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5297)</f>
         <v>5297</v>
       </c>
     </row>
@@ -3916,7 +3531,6 @@
         <v>44279</v>
       </c>
       <c r="B389" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5227)</f>
         <v>5227</v>
       </c>
     </row>
@@ -3925,7 +3539,6 @@
         <v>44280</v>
       </c>
       <c r="B390" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6107)</f>
         <v>6107</v>
       </c>
     </row>
@@ -3934,7 +3547,6 @@
         <v>44281</v>
       </c>
       <c r="B391" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4982)</f>
         <v>4982</v>
       </c>
     </row>
@@ -3943,7 +3555,6 @@
         <v>44282</v>
       </c>
       <c r="B392" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4461)</f>
         <v>4461</v>
       </c>
     </row>
@@ -3952,7 +3563,6 @@
         <v>44283</v>
       </c>
       <c r="B393" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4083)</f>
         <v>4083</v>
       </c>
     </row>
@@ -3961,7 +3571,6 @@
         <v>44284</v>
       </c>
       <c r="B394" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5008)</f>
         <v>5008</v>
       </c>
     </row>
@@ -3970,7 +3579,6 @@
         <v>44285</v>
       </c>
       <c r="B395" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4682)</f>
         <v>4682</v>
       </c>
     </row>
@@ -3979,7 +3587,6 @@
         <v>44286</v>
       </c>
       <c r="B396" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5937)</f>
         <v>5937</v>
       </c>
     </row>
@@ -3988,7 +3595,6 @@
         <v>44287</v>
       </c>
       <c r="B397" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6142)</f>
         <v>6142</v>
       </c>
     </row>
@@ -3997,7 +3603,6 @@
         <v>44288</v>
       </c>
       <c r="B398" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5325)</f>
         <v>5325</v>
       </c>
     </row>
@@ -4006,7 +3611,6 @@
         <v>44289</v>
       </c>
       <c r="B399" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4345)</f>
         <v>4345</v>
       </c>
     </row>
@@ -4015,7 +3619,6 @@
         <v>44290</v>
       </c>
       <c r="B400" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6731)</f>
         <v>6731</v>
       </c>
     </row>
@@ -4024,7 +3627,6 @@
         <v>44291</v>
       </c>
       <c r="B401" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3712)</f>
         <v>3712</v>
       </c>
     </row>
@@ -4033,7 +3635,6 @@
         <v>44292</v>
       </c>
       <c r="B402" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4549)</f>
         <v>4549</v>
       </c>
     </row>
@@ -4042,7 +3643,6 @@
         <v>44293</v>
       </c>
       <c r="B403" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4860)</f>
         <v>4860</v>
       </c>
     </row>
@@ -4051,7 +3651,6 @@
         <v>44294</v>
       </c>
       <c r="B404" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5504)</f>
         <v>5504</v>
       </c>
     </row>
@@ -4060,7 +3659,6 @@
         <v>44295</v>
       </c>
       <c r="B405" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5265)</f>
         <v>5265</v>
       </c>
     </row>
@@ -4069,7 +3667,6 @@
         <v>44296</v>
       </c>
       <c r="B406" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4723)</f>
         <v>4723</v>
       </c>
     </row>
@@ -4078,7 +3675,6 @@
         <v>44297</v>
       </c>
       <c r="B407" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4127)</f>
         <v>4127</v>
       </c>
     </row>
@@ -4087,7 +3683,6 @@
         <v>44298</v>
       </c>
       <c r="B408" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4829)</f>
         <v>4829</v>
       </c>
     </row>
@@ -4096,7 +3691,6 @@
         <v>44299</v>
       </c>
       <c r="B409" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5702)</f>
         <v>5702</v>
       </c>
     </row>
@@ -4105,7 +3699,6 @@
         <v>44300</v>
       </c>
       <c r="B410" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5656)</f>
         <v>5656</v>
       </c>
     </row>
@@ -4114,7 +3707,6 @@
         <v>44301</v>
       </c>
       <c r="B411" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6177)</f>
         <v>6177</v>
       </c>
     </row>
@@ -4123,7 +3715,6 @@
         <v>44302</v>
       </c>
       <c r="B412" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5363)</f>
         <v>5363</v>
       </c>
     </row>
@@ -4132,7 +3723,6 @@
         <v>44303</v>
       </c>
       <c r="B413" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5041)</f>
         <v>5041</v>
       </c>
     </row>
@@ -4141,7 +3731,6 @@
         <v>44304</v>
       </c>
       <c r="B414" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4585)</f>
         <v>4585</v>
       </c>
     </row>
@@ -4150,7 +3739,6 @@
         <v>44305</v>
       </c>
       <c r="B415" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4952)</f>
         <v>4952</v>
       </c>
     </row>
@@ -4159,7 +3747,6 @@
         <v>44306</v>
       </c>
       <c r="B416" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5549)</f>
         <v>5549</v>
       </c>
     </row>
@@ -4168,7 +3755,6 @@
         <v>44307</v>
       </c>
       <c r="B417" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5720)</f>
         <v>5720</v>
       </c>
     </row>
@@ -4177,7 +3763,6 @@
         <v>44308</v>
       </c>
       <c r="B418" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6243)</f>
         <v>6243</v>
       </c>
     </row>
@@ -4186,7 +3771,6 @@
         <v>44309</v>
       </c>
       <c r="B419" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5436)</f>
         <v>5436</v>
       </c>
     </row>
@@ -4195,7 +3779,6 @@
         <v>44310</v>
       </c>
       <c r="B420" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4544)</f>
         <v>4544</v>
       </c>
     </row>
@@ -4204,7 +3787,6 @@
         <v>44311</v>
       </c>
       <c r="B421" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4402)</f>
         <v>4402</v>
       </c>
     </row>
@@ -4213,7 +3795,6 @@
         <v>44312</v>
       </c>
       <c r="B422" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5944)</f>
         <v>5944</v>
       </c>
     </row>
@@ -4222,7 +3803,6 @@
         <v>44313</v>
       </c>
       <c r="B423" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4656)</f>
         <v>4656</v>
       </c>
     </row>
@@ -4231,7 +3811,6 @@
         <v>44314</v>
       </c>
       <c r="B424" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5241)</f>
         <v>5241</v>
       </c>
     </row>
@@ -4240,7 +3819,6 @@
         <v>44315</v>
       </c>
       <c r="B425" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5833)</f>
         <v>5833</v>
       </c>
     </row>
@@ -4249,7 +3827,6 @@
         <v>44316</v>
       </c>
       <c r="B426" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5500)</f>
         <v>5500</v>
       </c>
     </row>
@@ -4258,7 +3835,6 @@
         <v>44317</v>
       </c>
       <c r="B427" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4512)</f>
         <v>4512</v>
       </c>
     </row>
@@ -4267,7 +3843,6 @@
         <v>44318</v>
       </c>
       <c r="B428" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4394)</f>
         <v>4394</v>
       </c>
     </row>
@@ -4276,7 +3851,6 @@
         <v>44319</v>
       </c>
       <c r="B429" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4730)</f>
         <v>4730</v>
       </c>
     </row>
@@ -4285,7 +3859,6 @@
         <v>44320</v>
       </c>
       <c r="B430" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4369)</f>
         <v>4369</v>
       </c>
     </row>
@@ -4294,7 +3867,6 @@
         <v>44321</v>
       </c>
       <c r="B431" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5285)</f>
         <v>5285</v>
       </c>
     </row>
@@ -4303,7 +3875,6 @@
         <v>44322</v>
       </c>
       <c r="B432" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5647)</f>
         <v>5647</v>
       </c>
     </row>
@@ -4312,7 +3883,6 @@
         <v>44323</v>
       </c>
       <c r="B433" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6327)</f>
         <v>6327</v>
       </c>
     </row>
@@ -4321,7 +3891,6 @@
         <v>44324</v>
       </c>
       <c r="B434" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6130)</f>
         <v>6130</v>
       </c>
     </row>
@@ -4330,7 +3899,6 @@
         <v>44325</v>
       </c>
       <c r="B435" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3922)</f>
         <v>3922</v>
       </c>
     </row>
@@ -4339,7 +3907,6 @@
         <v>44326</v>
       </c>
       <c r="B436" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4891)</f>
         <v>4891</v>
       </c>
     </row>
@@ -4348,7 +3915,6 @@
         <v>44327</v>
       </c>
       <c r="B437" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5021)</f>
         <v>5021</v>
       </c>
     </row>
@@ -4357,7 +3923,6 @@
         <v>44328</v>
       </c>
       <c r="B438" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4608)</f>
         <v>4608</v>
       </c>
     </row>
@@ -4366,7 +3931,6 @@
         <v>44329</v>
       </c>
       <c r="B439" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3448)</f>
         <v>3448</v>
       </c>
     </row>
@@ -4375,7 +3939,6 @@
         <v>44330</v>
       </c>
       <c r="B440" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2633)</f>
         <v>2633</v>
       </c>
     </row>
@@ -4384,7 +3947,6 @@
         <v>44331</v>
       </c>
       <c r="B441" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2385)</f>
         <v>2385</v>
       </c>
     </row>
@@ -4393,7 +3955,6 @@
         <v>44332</v>
       </c>
       <c r="B442" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3080)</f>
         <v>3080</v>
       </c>
     </row>
@@ -4402,7 +3963,6 @@
         <v>44333</v>
       </c>
       <c r="B443" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4295)</f>
         <v>4295</v>
       </c>
     </row>
@@ -4411,7 +3971,6 @@
         <v>44334</v>
       </c>
       <c r="B444" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4185)</f>
         <v>4185</v>
       </c>
     </row>
@@ -4420,7 +3979,6 @@
         <v>44335</v>
       </c>
       <c r="B445" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4871)</f>
         <v>4871</v>
       </c>
     </row>
@@ -4429,7 +3987,6 @@
         <v>44336</v>
       </c>
       <c r="B446" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5797)</f>
         <v>5797</v>
       </c>
     </row>
@@ -4438,7 +3995,6 @@
         <v>44337</v>
       </c>
       <c r="B447" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5746)</f>
         <v>5746</v>
       </c>
     </row>
@@ -4447,7 +4003,6 @@
         <v>44338</v>
       </c>
       <c r="B448" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5296)</f>
         <v>5296</v>
       </c>
     </row>
@@ -4456,7 +4011,6 @@
         <v>44339</v>
       </c>
       <c r="B449" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5280)</f>
         <v>5280</v>
       </c>
     </row>
@@ -4465,7 +4019,6 @@
         <v>44340</v>
       </c>
       <c r="B450" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5907)</f>
         <v>5907</v>
       </c>
     </row>
@@ -4474,7 +4027,6 @@
         <v>44341</v>
       </c>
       <c r="B451" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5060)</f>
         <v>5060</v>
       </c>
     </row>
@@ -4483,7 +4035,6 @@
         <v>44342</v>
       </c>
       <c r="B452" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5034)</f>
         <v>5034</v>
       </c>
     </row>
@@ -4492,7 +4043,6 @@
         <v>44343</v>
       </c>
       <c r="B453" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6278)</f>
         <v>6278</v>
       </c>
     </row>
@@ -4501,7 +4051,6 @@
         <v>44344</v>
       </c>
       <c r="B454" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5862)</f>
         <v>5862</v>
       </c>
     </row>
@@ -4510,7 +4059,6 @@
         <v>44345</v>
       </c>
       <c r="B455" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6565)</f>
         <v>6565</v>
       </c>
     </row>
@@ -4519,7 +4067,6 @@
         <v>44346</v>
       </c>
       <c r="B456" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6115)</f>
         <v>6115</v>
       </c>
     </row>
@@ -4528,7 +4075,6 @@
         <v>44347</v>
       </c>
       <c r="B457" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5662)</f>
         <v>5662</v>
       </c>
     </row>
@@ -4537,7 +4083,6 @@
         <v>44348</v>
       </c>
       <c r="B458" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4824)</f>
         <v>4824</v>
       </c>
     </row>
@@ -4546,7 +4091,6 @@
         <v>44349</v>
       </c>
       <c r="B459" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5246)</f>
         <v>5246</v>
       </c>
     </row>
@@ -4555,7 +4099,6 @@
         <v>44350</v>
       </c>
       <c r="B460" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5353)</f>
         <v>5353</v>
       </c>
     </row>
@@ -4564,7 +4107,6 @@
         <v>44351</v>
       </c>
       <c r="B461" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6486)</f>
         <v>6486</v>
       </c>
     </row>
@@ -4573,7 +4115,6 @@
         <v>44352</v>
       </c>
       <c r="B462" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6594)</f>
         <v>6594</v>
       </c>
     </row>
@@ -4582,7 +4123,6 @@
         <v>44353</v>
       </c>
       <c r="B463" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5832)</f>
         <v>5832</v>
       </c>
     </row>
@@ -4591,7 +4131,6 @@
         <v>44354</v>
       </c>
       <c r="B464" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6993)</f>
         <v>6993</v>
       </c>
     </row>
@@ -4600,7 +4139,6 @@
         <v>44355</v>
       </c>
       <c r="B465" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6294)</f>
         <v>6294</v>
       </c>
     </row>
@@ -4609,7 +4147,6 @@
         <v>44356</v>
       </c>
       <c r="B466" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7725)</f>
         <v>7725</v>
       </c>
     </row>
@@ -4618,7 +4155,6 @@
         <v>44357</v>
       </c>
       <c r="B467" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8851)</f>
         <v>8851</v>
       </c>
     </row>
@@ -4627,7 +4163,6 @@
         <v>44358</v>
       </c>
       <c r="B468" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8124)</f>
         <v>8124</v>
       </c>
     </row>
@@ -4636,7 +4171,6 @@
         <v>44359</v>
       </c>
       <c r="B469" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7465)</f>
         <v>7465</v>
       </c>
     </row>
@@ -4645,7 +4179,6 @@
         <v>44360</v>
       </c>
       <c r="B470" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9868)</f>
         <v>9868</v>
       </c>
     </row>
@@ -4654,7 +4187,6 @@
         <v>44361</v>
       </c>
       <c r="B471" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8189)</f>
         <v>8189</v>
       </c>
     </row>
@@ -4663,7 +4195,6 @@
         <v>44362</v>
       </c>
       <c r="B472" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8161)</f>
         <v>8161</v>
       </c>
     </row>
@@ -4672,7 +4203,6 @@
         <v>44363</v>
       </c>
       <c r="B473" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9944)</f>
         <v>9944</v>
       </c>
     </row>
@@ -4681,7 +4211,6 @@
         <v>44364</v>
       </c>
       <c r="B474" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12624)</f>
         <v>12624</v>
       </c>
     </row>
@@ -4690,7 +4219,6 @@
         <v>44365</v>
       </c>
       <c r="B475" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12990)</f>
         <v>12990</v>
       </c>
     </row>
@@ -4699,7 +4227,6 @@
         <v>44366</v>
       </c>
       <c r="B476" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12906)</f>
         <v>12906</v>
       </c>
     </row>
@@ -4708,7 +4235,6 @@
         <v>44367</v>
       </c>
       <c r="B477" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13737)</f>
         <v>13737</v>
       </c>
     </row>
@@ -4717,7 +4243,6 @@
         <v>44368</v>
       </c>
       <c r="B478" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14536)</f>
         <v>14536</v>
       </c>
     </row>
@@ -4726,7 +4251,6 @@
         <v>44369</v>
       </c>
       <c r="B479" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13668)</f>
         <v>13668</v>
       </c>
     </row>
@@ -4735,7 +4259,6 @@
         <v>44370</v>
       </c>
       <c r="B480" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15308)</f>
         <v>15308</v>
       </c>
     </row>
@@ -4744,7 +4267,6 @@
         <v>44371</v>
       </c>
       <c r="B481" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20574)</f>
         <v>20574</v>
       </c>
     </row>
@@ -4753,7 +4275,6 @@
         <v>44372</v>
       </c>
       <c r="B482" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18872)</f>
         <v>18872</v>
       </c>
     </row>
@@ -4762,7 +4283,6 @@
         <v>44373</v>
       </c>
       <c r="B483" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21095)</f>
         <v>21095</v>
       </c>
     </row>
@@ -4771,7 +4291,6 @@
         <v>44374</v>
       </c>
       <c r="B484" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21342)</f>
         <v>21342</v>
       </c>
     </row>
@@ -4780,7 +4299,6 @@
         <v>44375</v>
       </c>
       <c r="B485" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20694)</f>
         <v>20694</v>
       </c>
     </row>
@@ -4789,7 +4307,6 @@
         <v>44376</v>
       </c>
       <c r="B486" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20467)</f>
         <v>20467</v>
       </c>
     </row>
@@ -4798,7 +4315,6 @@
         <v>44377</v>
       </c>
       <c r="B487" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21807)</f>
         <v>21807</v>
       </c>
     </row>
@@ -4807,7 +4323,6 @@
         <v>44378</v>
       </c>
       <c r="B488" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24836)</f>
         <v>24836</v>
       </c>
     </row>
@@ -4816,7 +4331,6 @@
         <v>44379</v>
       </c>
       <c r="B489" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25830)</f>
         <v>25830</v>
       </c>
     </row>
@@ -4825,7 +4339,6 @@
         <v>44380</v>
       </c>
       <c r="B490" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27913)</f>
         <v>27913</v>
       </c>
     </row>
@@ -4834,7 +4347,6 @@
         <v>44381</v>
       </c>
       <c r="B491" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27233)</f>
         <v>27233</v>
       </c>
     </row>
@@ -4843,7 +4355,6 @@
         <v>44382</v>
       </c>
       <c r="B492" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29745)</f>
         <v>29745</v>
       </c>
     </row>
@@ -4852,7 +4363,6 @@
         <v>44383</v>
       </c>
       <c r="B493" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31189)</f>
         <v>31189</v>
       </c>
     </row>
@@ -4861,7 +4371,6 @@
         <v>44384</v>
       </c>
       <c r="B494" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34379)</f>
         <v>34379</v>
       </c>
     </row>
@@ -4870,7 +4379,6 @@
         <v>44385</v>
       </c>
       <c r="B495" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38391)</f>
         <v>38391</v>
       </c>
     </row>
@@ -4879,7 +4387,6 @@
         <v>44386</v>
       </c>
       <c r="B496" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38124)</f>
         <v>38124</v>
       </c>
     </row>
@@ -4888,7 +4395,6 @@
         <v>44387</v>
       </c>
       <c r="B497" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35094)</f>
         <v>35094</v>
       </c>
     </row>
@@ -4897,7 +4403,6 @@
         <v>44388</v>
       </c>
       <c r="B498" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36197)</f>
         <v>36197</v>
       </c>
     </row>
@@ -4906,7 +4411,6 @@
         <v>44389</v>
       </c>
       <c r="B499" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40427)</f>
         <v>40427</v>
       </c>
     </row>
@@ -4915,7 +4419,6 @@
         <v>44390</v>
       </c>
       <c r="B500" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47899)</f>
         <v>47899</v>
       </c>
     </row>
@@ -4924,7 +4427,6 @@
         <v>44391</v>
       </c>
       <c r="B501" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54517)</f>
         <v>54517</v>
       </c>
     </row>
@@ -4933,7 +4435,6 @@
         <v>44392</v>
       </c>
       <c r="B502" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56757)</f>
         <v>56757</v>
       </c>
     </row>
@@ -4942,7 +4443,6 @@
         <v>44393</v>
       </c>
       <c r="B503" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54000)</f>
         <v>54000</v>
       </c>
     </row>
@@ -4951,7 +4451,6 @@
         <v>44394</v>
       </c>
       <c r="B504" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51952)</f>
         <v>51952</v>
       </c>
     </row>
@@ -4960,7 +4459,6 @@
         <v>44395</v>
       </c>
       <c r="B505" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44721)</f>
         <v>44721</v>
       </c>
     </row>
@@ -4969,7 +4467,6 @@
         <v>44396</v>
       </c>
       <c r="B506" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34257)</f>
         <v>34257</v>
       </c>
     </row>
@@ -4978,7 +4475,6 @@
         <v>44397</v>
       </c>
       <c r="B507" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38325)</f>
         <v>38325</v>
       </c>
     </row>
@@ -4987,7 +4483,6 @@
         <v>44398</v>
       </c>
       <c r="B508" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33772)</f>
         <v>33772</v>
       </c>
     </row>
@@ -4996,7 +4491,6 @@
         <v>44399</v>
       </c>
       <c r="B509" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49509)</f>
         <v>49509</v>
       </c>
     </row>
@@ -5005,7 +4499,6 @@
         <v>44400</v>
       </c>
       <c r="B510" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49071)</f>
         <v>49071</v>
       </c>
     </row>
@@ -5014,7 +4507,6 @@
         <v>44401</v>
       </c>
       <c r="B511" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45416)</f>
         <v>45416</v>
       </c>
     </row>
@@ -5023,7 +4515,6 @@
         <v>44402</v>
       </c>
       <c r="B512" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38679)</f>
         <v>38679</v>
       </c>
     </row>
@@ -5032,7 +4523,6 @@
         <v>44403</v>
       </c>
       <c r="B513" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28228)</f>
         <v>28228</v>
       </c>
     </row>
@@ -5041,7 +4531,6 @@
         <v>44404</v>
       </c>
       <c r="B514" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45203)</f>
         <v>45203</v>
       </c>
     </row>
@@ -5050,7 +4539,6 @@
         <v>44405</v>
       </c>
       <c r="B515" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47791)</f>
         <v>47791</v>
       </c>
     </row>
@@ -5059,7 +4547,6 @@
         <v>44406</v>
       </c>
       <c r="B516" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43479)</f>
         <v>43479</v>
       </c>
     </row>
@@ -5068,7 +4555,6 @@
         <v>44407</v>
       </c>
       <c r="B517" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41168)</f>
         <v>41168</v>
       </c>
     </row>
@@ -5077,7 +4563,6 @@
         <v>44408</v>
       </c>
       <c r="B518" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37284)</f>
         <v>37284</v>
       </c>
     </row>
@@ -5086,7 +4571,6 @@
         <v>44409</v>
       </c>
       <c r="B519" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30738)</f>
         <v>30738</v>
       </c>
     </row>
@@ -5095,7 +4579,6 @@
         <v>44410</v>
       </c>
       <c r="B520" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22404)</f>
         <v>22404</v>
       </c>
     </row>
@@ -5104,7 +4587,6 @@
         <v>44411</v>
       </c>
       <c r="B521" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33900)</f>
         <v>33900</v>
       </c>
     </row>
@@ -5113,7 +4595,6 @@
         <v>44412</v>
       </c>
       <c r="B522" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35867)</f>
         <v>35867</v>
       </c>
     </row>
@@ -5122,7 +4603,6 @@
         <v>44413</v>
       </c>
       <c r="B523" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35764)</f>
         <v>35764</v>
       </c>
     </row>
@@ -5131,7 +4611,6 @@
         <v>44414</v>
       </c>
       <c r="B524" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39532)</f>
         <v>39532</v>
       </c>
     </row>
@@ -5140,7 +4619,6 @@
         <v>44415</v>
       </c>
       <c r="B525" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31753)</f>
         <v>31753</v>
       </c>
     </row>
@@ -5149,7 +4627,6 @@
         <v>44416</v>
       </c>
       <c r="B526" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26415)</f>
         <v>26415</v>
       </c>
     </row>
@@ -5158,7 +4635,6 @@
         <v>44417</v>
       </c>
       <c r="B527" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20709)</f>
         <v>20709</v>
       </c>
     </row>
@@ -5167,7 +4643,6 @@
         <v>44418</v>
       </c>
       <c r="B528" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32081)</f>
         <v>32081</v>
       </c>
     </row>
@@ -5176,7 +4651,6 @@
         <v>44419</v>
       </c>
       <c r="B529" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30625)</f>
         <v>30625</v>
       </c>
     </row>
@@ -5185,7 +4659,6 @@
         <v>44420</v>
       </c>
       <c r="B530" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24709)</f>
         <v>24709</v>
       </c>
     </row>
@@ -5194,7 +4667,6 @@
         <v>44421</v>
       </c>
       <c r="B531" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30788)</f>
         <v>30788</v>
       </c>
     </row>
@@ -5203,7 +4675,6 @@
         <v>44422</v>
       </c>
       <c r="B532" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28598)</f>
         <v>28598</v>
       </c>
     </row>
@@ -5212,7 +4683,6 @@
         <v>44423</v>
       </c>
       <c r="B533" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20813)</f>
         <v>20813</v>
       </c>
     </row>
@@ -5221,7 +4691,6 @@
         <v>44424</v>
       </c>
       <c r="B534" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17384)</f>
         <v>17384</v>
       </c>
     </row>
@@ -5230,7 +4699,6 @@
         <v>44425</v>
       </c>
       <c r="B535" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20741)</f>
         <v>20741</v>
       </c>
     </row>
@@ -5239,7 +4707,6 @@
         <v>44426</v>
       </c>
       <c r="B536" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15768)</f>
         <v>15768</v>
       </c>
     </row>
@@ -5248,7 +4715,6 @@
         <v>44427</v>
       </c>
       <c r="B537" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22053)</f>
         <v>22053</v>
       </c>
     </row>
@@ -5257,7 +4723,6 @@
         <v>44428</v>
       </c>
       <c r="B538" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20004)</f>
         <v>20004</v>
       </c>
     </row>
@@ -5266,7 +4731,6 @@
         <v>44429</v>
       </c>
       <c r="B539" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16744)</f>
         <v>16744</v>
       </c>
     </row>
@@ -5275,7 +4739,6 @@
         <v>44430</v>
       </c>
       <c r="B540" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12408)</f>
         <v>12408</v>
       </c>
     </row>
@@ -5284,7 +4747,6 @@
         <v>44431</v>
       </c>
       <c r="B541" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9604)</f>
         <v>9604</v>
       </c>
     </row>
@@ -5293,7 +4755,6 @@
         <v>44432</v>
       </c>
       <c r="B542" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19106)</f>
         <v>19106</v>
       </c>
     </row>
@@ -5302,7 +4763,6 @@
         <v>44433</v>
       </c>
       <c r="B543" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18671)</f>
         <v>18671</v>
       </c>
     </row>
@@ -5311,7 +4771,6 @@
         <v>44434</v>
       </c>
       <c r="B544" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16899)</f>
         <v>16899</v>
       </c>
     </row>
@@ -5320,7 +4779,6 @@
         <v>44435</v>
       </c>
       <c r="B545" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12618)</f>
         <v>12618</v>
       </c>
     </row>
@@ -5329,7 +4787,6 @@
         <v>44436</v>
       </c>
       <c r="B546" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10050)</f>
         <v>10050</v>
       </c>
     </row>
@@ -5338,7 +4795,6 @@
         <v>44437</v>
       </c>
       <c r="B547" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7427)</f>
         <v>7427</v>
       </c>
     </row>
@@ -5347,7 +4803,6 @@
         <v>44438</v>
       </c>
       <c r="B548" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5436)</f>
         <v>5436</v>
       </c>
     </row>
@@ -5356,7 +4811,6 @@
         <v>44439</v>
       </c>
       <c r="B549" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10534)</f>
         <v>10534</v>
       </c>
     </row>
@@ -5365,7 +4819,6 @@
         <v>44440</v>
       </c>
       <c r="B550" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10337)</f>
         <v>10337</v>
       </c>
     </row>
@@ -5374,7 +4827,6 @@
         <v>44441</v>
       </c>
       <c r="B551" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8955)</f>
         <v>8955</v>
       </c>
     </row>
@@ -5383,7 +4835,6 @@
         <v>44442</v>
       </c>
       <c r="B552" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7797)</f>
         <v>7797</v>
       </c>
     </row>
@@ -5392,7 +4843,6 @@
         <v>44443</v>
       </c>
       <c r="B553" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6727)</f>
         <v>6727</v>
       </c>
     </row>
@@ -5401,7 +4851,6 @@
         <v>44444</v>
       </c>
       <c r="B554" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5403)</f>
         <v>5403</v>
       </c>
     </row>
@@ -5410,7 +4859,6 @@
         <v>44445</v>
       </c>
       <c r="B555" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4413)</f>
         <v>4413</v>
       </c>
     </row>
@@ -5419,7 +4867,6 @@
         <v>44446</v>
       </c>
       <c r="B556" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7201)</f>
         <v>7201</v>
       </c>
     </row>
@@ -5428,7 +4875,6 @@
         <v>44447</v>
       </c>
       <c r="B557" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6731)</f>
         <v>6731</v>
       </c>
     </row>
@@ -5437,7 +4883,6 @@
         <v>44448</v>
       </c>
       <c r="B558" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5990)</f>
         <v>5990</v>
       </c>
     </row>
@@ -5446,7 +4891,6 @@
         <v>44449</v>
       </c>
       <c r="B559" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5376)</f>
         <v>5376</v>
       </c>
     </row>
@@ -5455,7 +4899,6 @@
         <v>44450</v>
       </c>
       <c r="B560" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5001)</f>
         <v>5001</v>
       </c>
     </row>
@@ -5464,7 +4907,6 @@
         <v>44451</v>
       </c>
       <c r="B561" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3779)</f>
         <v>3779</v>
       </c>
     </row>
@@ -5473,7 +4915,6 @@
         <v>44452</v>
       </c>
       <c r="B562" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2577)</f>
         <v>2577</v>
       </c>
     </row>
@@ -5482,7 +4923,6 @@
         <v>44453</v>
       </c>
       <c r="B563" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4128)</f>
         <v>4128</v>
       </c>
     </row>
@@ -5491,7 +4931,6 @@
         <v>44454</v>
       </c>
       <c r="B564" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3948)</f>
         <v>3948</v>
       </c>
     </row>
@@ -5500,7 +4939,6 @@
         <v>44455</v>
       </c>
       <c r="B565" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3145)</f>
         <v>3145</v>
       </c>
     </row>
@@ -5509,7 +4947,6 @@
         <v>44456</v>
       </c>
       <c r="B566" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3835)</f>
         <v>3835</v>
       </c>
     </row>
@@ -5518,7 +4955,6 @@
         <v>44457</v>
       </c>
       <c r="B567" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3385)</f>
         <v>3385</v>
       </c>
     </row>
@@ -5527,7 +4963,6 @@
         <v>44458</v>
       </c>
       <c r="B568" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2234)</f>
         <v>2234</v>
       </c>
     </row>
@@ -5536,7 +4971,6 @@
         <v>44459</v>
       </c>
       <c r="B569" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1932)</f>
         <v>1932</v>
       </c>
     </row>
@@ -5545,7 +4979,6 @@
         <v>44460</v>
       </c>
       <c r="B570" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3263)</f>
         <v>3263</v>
       </c>
     </row>
@@ -5554,7 +4987,6 @@
         <v>44461</v>
       </c>
       <c r="B571" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2720)</f>
         <v>2720</v>
       </c>
     </row>
@@ -5563,7 +4995,6 @@
         <v>44462</v>
       </c>
       <c r="B572" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2881)</f>
         <v>2881</v>
       </c>
     </row>
@@ -5572,7 +5003,6 @@
         <v>44463</v>
       </c>
       <c r="B573" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2557)</f>
         <v>2557</v>
       </c>
     </row>
@@ -5581,7 +5011,6 @@
         <v>44464</v>
       </c>
       <c r="B574" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2137)</f>
         <v>2137</v>
       </c>
     </row>
@@ -5590,7 +5019,6 @@
         <v>44465</v>
       </c>
       <c r="B575" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1760)</f>
         <v>1760</v>
       </c>
     </row>
@@ -5599,7 +5027,6 @@
         <v>44466</v>
       </c>
       <c r="B576" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1390)</f>
         <v>1390</v>
       </c>
     </row>
@@ -5608,7 +5035,6 @@
         <v>44467</v>
       </c>
       <c r="B577" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2057)</f>
         <v>2057</v>
       </c>
     </row>
@@ -5617,7 +5043,6 @@
         <v>44468</v>
       </c>
       <c r="B578" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1954)</f>
         <v>1954</v>
       </c>
     </row>
@@ -5626,7 +5051,6 @@
         <v>44469</v>
       </c>
       <c r="B579" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1690)</f>
         <v>1690</v>
       </c>
     </row>
@@ -5635,7 +5059,6 @@
         <v>44470</v>
       </c>
       <c r="B580" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1624)</f>
         <v>1624</v>
       </c>
     </row>
@@ -5644,7 +5067,6 @@
         <v>44471</v>
       </c>
       <c r="B581" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1414)</f>
         <v>1414</v>
       </c>
     </row>
@@ -5653,7 +5075,6 @@
         <v>44472</v>
       </c>
       <c r="B582" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142)</f>
         <v>1142</v>
       </c>
     </row>
@@ -5662,7 +5083,6 @@
         <v>44473</v>
       </c>
       <c r="B583" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),922)</f>
         <v>922</v>
       </c>
     </row>
@@ -5671,7 +5091,6 @@
         <v>44474</v>
       </c>
       <c r="B584" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1404)</f>
         <v>1404</v>
       </c>
     </row>
@@ -5680,7 +5099,6 @@
         <v>44475</v>
       </c>
       <c r="B585" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1484)</f>
         <v>1484</v>
       </c>
     </row>
@@ -5689,7 +5107,6 @@
         <v>44476</v>
       </c>
       <c r="B586" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1393)</f>
         <v>1393</v>
       </c>
     </row>
@@ -5698,7 +5115,6 @@
         <v>44477</v>
       </c>
       <c r="B587" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1384)</f>
         <v>1384</v>
       </c>
     </row>
